--- a/Sociometry/סוציומטרי_ניסוי/Responses/טופס ניסוי 1 - Copy (2).xlsx
+++ b/Sociometry/סוציומטרי_ניסוי/Responses/טופס ניסוי 1 - Copy (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t8637523\Desktop\פרויקט הערכה מחודשת\Sociometry\סוציומטרי ניסוי\Responses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t8637523\Desktop\פרויקט הערכה מחודשת\Talportal\Sociometry\סוציומטרי_ניסוי\Responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FBF4A3-F6A5-4123-B7EC-BEC26FD381AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A632569-61E5-4197-92F5-3A959EF2E985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83EB4215-5525-4FF7-B89F-48EB5113D888}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>שם החניך עליו ממולא המשוב</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>ליאור שרון</t>
+  </si>
+  <si>
+    <t>אחלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואתה </t>
+  </si>
+  <si>
+    <t>סבבה</t>
+  </si>
+  <si>
+    <t>אתה</t>
   </si>
 </sst>
 </file>
@@ -916,7 +928,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,43 +992,43 @@
       </c>
       <c r="B2" s="6">
         <f>AVERAGE(B3:B60)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:N2" si="0">AVERAGE(C3:C60)</f>
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" si="0"/>
@@ -1024,11 +1036,11 @@
       </c>
       <c r="M2" s="6">
         <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="N2" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>17</v>
@@ -1041,45 +1053,19 @@
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9">
-        <v>6</v>
-      </c>
-      <c r="K3" s="9">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9">
-        <v>2</v>
-      </c>
-      <c r="M3" s="9">
-        <v>4</v>
-      </c>
-      <c r="N3" s="9">
-        <v>4</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
@@ -1126,8 +1112,12 @@
       <c r="N4" s="9">
         <v>3</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
@@ -1172,8 +1162,12 @@
       <c r="N5" s="9">
         <v>2</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
